--- a/Данные_для_заполнения.xlsx
+++ b/Данные_для_заполнения.xlsx
@@ -1,73 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>й</t>
-  </si>
-  <si>
-    <t>ц</t>
-  </si>
-  <si>
-    <t>у</t>
-  </si>
-  <si>
-    <t>е</t>
-  </si>
-  <si>
-    <t>н</t>
-  </si>
-  <si>
-    <t>г</t>
-  </si>
-  <si>
-    <t>ш</t>
-  </si>
-  <si>
-    <t>щд</t>
-  </si>
-  <si>
-    <t>д</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>р</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>sdsf</t>
-  </si>
-  <si>
-    <t>0.5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>И.И. Иванов</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>ОВД г. Ухта</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
+  </si>
+  <si>
+    <t>г. Ухта, ул. Ленина, д.1, кв. 1</t>
+  </si>
+  <si>
+    <t>01.01.2000</t>
+  </si>
+  <si>
+    <t>0000000000000</t>
+  </si>
+  <si>
+    <t>000-000-000- 00</t>
+  </si>
+  <si>
+    <t>89500000000</t>
+  </si>
+  <si>
+    <t>00000000000000000000</t>
+  </si>
+  <si>
+    <t>КОМИ ОТДЕЛЕНИЕ №8617 ПАО СБЕРБАНК</t>
+  </si>
+  <si>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>LADA GRANTA</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>P000PP 11</t>
+  </si>
+  <si>
+    <t>АО "СОГАЗ" ТТТ № 0000000000 с 01.01.2025 по 01.01.2026</t>
+  </si>
+  <si>
+    <t>00 РР</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>Иванова Ивана Ивановича</t>
+  </si>
+  <si>
+    <t>Название файла</t>
+  </si>
+  <si>
+    <t>{ФИО Водителя полностью}</t>
+  </si>
+  <si>
+    <t>{Паспорт серия}</t>
+  </si>
+  <si>
+    <t>{Паспорт №}</t>
+  </si>
+  <si>
+    <t>{Кем выдал}</t>
+  </si>
+  <si>
+    <t>{Дата выдачи}</t>
+  </si>
+  <si>
+    <t>{Адрес по прописке}</t>
+  </si>
+  <si>
+    <t>{Дата рождения}</t>
+  </si>
+  <si>
+    <t>{ИНН}</t>
+  </si>
+  <si>
+    <t>{Телефон}</t>
+  </si>
+  <si>
+    <t>{Банковский счет}</t>
+  </si>
+  <si>
+    <t>{Наименование банка}</t>
+  </si>
+  <si>
+    <t>{БИК банка}</t>
+  </si>
+  <si>
+    <t>{марка (модель) авто}</t>
+  </si>
+  <si>
+    <t>{Год выпуска}</t>
+  </si>
+  <si>
+    <t>{Серия ПТС}</t>
+  </si>
+  <si>
+    <t>{Номер ПТС}</t>
+  </si>
+  <si>
+    <t>{№ УИК}</t>
+  </si>
+  <si>
+    <t>{Цена договора}</t>
+  </si>
+  <si>
+    <t>{Цена договора Прописью}</t>
+  </si>
+  <si>
+    <t>{ФИО председателя полностью в Родительном падеже}</t>
+  </si>
+  <si>
+    <t>{ИО Фамилия председателя}</t>
+  </si>
+  <si>
+    <t>{Количество часов}</t>
+  </si>
+  <si>
+    <t>{№ договора}</t>
+  </si>
+  <si>
+    <t>{Государственный номер}</t>
+  </si>
+  <si>
+    <t>{Марка ВИН}</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>34ВодителяСНИЛС</t>
+  </si>
+  <si>
+    <t>{ИО Фамилия}</t>
+  </si>
+  <si>
+    <t>страховка</t>
+  </si>
+  <si>
+    <t>Авто И.И. Иванов 1</t>
+  </si>
+  <si>
+    <t>Авто И.И. Иванов 2</t>
+  </si>
+  <si>
+    <t>Авто И.И. Иванов 3</t>
+  </si>
+  <si>
+    <t>Авто И.И. Иванов 4</t>
+  </si>
+  <si>
+    <t>Авто И.И. Иванов 5</t>
+  </si>
+  <si>
+    <t>Авто И.И. Иванов 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,17 +228,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -130,44 +259,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -200,9 +329,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -241,262 +370,754 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="52.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="X5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
